--- a/simulations/cleaned_inclusion_exclusion/Appenzeller-Herzog_2019 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Appenzeller-Herzog_2019 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>293</v>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="D2">
-        <v>275.5</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>49.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -439,13 +439,13 @@
         <v>497</v>
       </c>
       <c r="B4">
-        <v>1690</v>
+        <v>1673</v>
       </c>
       <c r="C4">
-        <v>1725</v>
+        <v>1693</v>
       </c>
       <c r="D4">
-        <v>1707.5</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>224</v>
       </c>
       <c r="C6">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D6">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>87</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>60.5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>65.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>220</v>
       </c>
       <c r="C10">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D10">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>66.5</v>
+        <v>61.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>44.5</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>133</v>
       </c>
       <c r="C13">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="D13">
-        <v>142.5</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>101</v>
       </c>
       <c r="C14">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D14">
-        <v>119.5</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>86</v>
       </c>
       <c r="C16">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>96</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>1888</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>92</v>
       </c>
       <c r="C18">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D18">
-        <v>124</v>
+        <v>113.5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>115</v>
       </c>
       <c r="C19">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>127.5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>126</v>
       </c>
       <c r="C20">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D20">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -705,10 +705,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>245</v>
       </c>
       <c r="C24">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D24">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>46</v>
       </c>
       <c r="C25">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>58.5</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -747,10 +747,10 @@
         <v>66</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D26">
-        <v>76</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,10 +761,10 @@
         <v>478</v>
       </c>
       <c r="C27">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D27">
-        <v>511.5</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,10 +772,10 @@
         <v>4</v>
       </c>
       <c r="B28">
-        <v>170.24</v>
+        <v>169.56</v>
       </c>
       <c r="C28">
-        <v>192.6538461538462</v>
+        <v>190.5769230769231</v>
       </c>
     </row>
   </sheetData>

--- a/simulations/cleaned_inclusion_exclusion/Appenzeller-Herzog_2019 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Appenzeller-Herzog_2019 IEC_clean/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>293</v>
       </c>
       <c r="C2">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="D2">
-        <v>293.5</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>43</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>1673</v>
       </c>
       <c r="C4">
-        <v>1693</v>
+        <v>1709</v>
       </c>
       <c r="D4">
-        <v>1683</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>32.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>224</v>
       </c>
       <c r="C6">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D6">
-        <v>243</v>
+        <v>230.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>87</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>60.5</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,10 +526,10 @@
         <v>220</v>
       </c>
       <c r="C10">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D10">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,10 +540,10 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>61.5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,10 +554,10 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,10 +568,10 @@
         <v>133</v>
       </c>
       <c r="C13">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D13">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,10 +582,10 @@
         <v>101</v>
       </c>
       <c r="C14">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D14">
-        <v>113.5</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,10 +596,10 @@
         <v>32</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>33.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,10 +610,10 @@
         <v>86</v>
       </c>
       <c r="C16">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>94.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>1888</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>92</v>
       </c>
       <c r="C18">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D18">
-        <v>113.5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>115</v>
       </c>
       <c r="C19">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D19">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>126</v>
       </c>
       <c r="C20">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="D20">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>30.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -691,10 +691,10 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -705,10 +705,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>245</v>
       </c>
       <c r="C24">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D24">
-        <v>243</v>
+        <v>253.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>46</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>58</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -747,10 +747,10 @@
         <v>66</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>53.5</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,10 +761,10 @@
         <v>478</v>
       </c>
       <c r="C27">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="D27">
-        <v>509.5</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -775,7 +775,7 @@
         <v>169.56</v>
       </c>
       <c r="C28">
-        <v>190.5769230769231</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
